--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H2">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>4.575586278081333</v>
+        <v>10.57163870670222</v>
       </c>
       <c r="R2">
-        <v>41.180276502732</v>
+        <v>95.14474836032001</v>
       </c>
       <c r="S2">
-        <v>0.01187791661577544</v>
+        <v>0.02937152617411446</v>
       </c>
       <c r="T2">
-        <v>0.01187791661577544</v>
+        <v>0.02937152617411446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H3">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>4.822837432653</v>
+        <v>11.43832757114</v>
       </c>
       <c r="R3">
-        <v>43.405536893877</v>
+        <v>102.94494814026</v>
       </c>
       <c r="S3">
-        <v>0.01251976411217714</v>
+        <v>0.0317794759133076</v>
       </c>
       <c r="T3">
-        <v>0.01251976411217714</v>
+        <v>0.0317794759133076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H4">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>3.115982704952333</v>
+        <v>4.930913049624444</v>
       </c>
       <c r="R4">
-        <v>28.043844344571</v>
+        <v>44.37821744662</v>
       </c>
       <c r="S4">
-        <v>0.008088883149886117</v>
+        <v>0.0136997154100157</v>
       </c>
       <c r="T4">
-        <v>0.008088883149886117</v>
+        <v>0.0136997154100157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H5">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>1.669515720803333</v>
+        <v>3.872110068775556</v>
       </c>
       <c r="R5">
-        <v>15.02564148723</v>
+        <v>34.84899061898</v>
       </c>
       <c r="S5">
-        <v>0.004333951392288823</v>
+        <v>0.01075800879971341</v>
       </c>
       <c r="T5">
-        <v>0.004333951392288822</v>
+        <v>0.01075800879971341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H6">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I6">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J6">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>2.430388648234334</v>
+        <v>4.623244171253334</v>
       </c>
       <c r="R6">
-        <v>21.873497834109</v>
+        <v>41.60919754128</v>
       </c>
       <c r="S6">
-        <v>0.006309126733319893</v>
+        <v>0.0128449090015912</v>
       </c>
       <c r="T6">
-        <v>0.006309126733319892</v>
+        <v>0.01284490900159121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>1.757262</v>
       </c>
       <c r="I7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>95.89495025694133</v>
+        <v>93.41817850254934</v>
       </c>
       <c r="R7">
-        <v>863.054552312472</v>
+        <v>840.7636065229441</v>
       </c>
       <c r="S7">
-        <v>0.2489368911001083</v>
+        <v>0.2595467506174028</v>
       </c>
       <c r="T7">
-        <v>0.2489368911001083</v>
+        <v>0.2595467506174028</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>1.757262</v>
       </c>
       <c r="I8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>101.076829851738</v>
@@ -948,10 +948,10 @@
         <v>909.691468665642</v>
       </c>
       <c r="S8">
-        <v>0.2623887047037178</v>
+        <v>0.2808250296810355</v>
       </c>
       <c r="T8">
-        <v>0.2623887047037177</v>
+        <v>0.2808250296810356</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>1.757262</v>
       </c>
       <c r="I9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>65.30463821090733</v>
+        <v>43.57289614507266</v>
       </c>
       <c r="R9">
-        <v>587.7417438981661</v>
+        <v>392.156065305654</v>
       </c>
       <c r="S9">
-        <v>0.1695264825424306</v>
+        <v>0.1210599884382732</v>
       </c>
       <c r="T9">
-        <v>0.1695264825424306</v>
+        <v>0.1210599884382732</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>1.757262</v>
       </c>
       <c r="I10">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J10">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>34.98964225995333</v>
+        <v>34.21659400420733</v>
       </c>
       <c r="R10">
-        <v>314.90678033958</v>
+        <v>307.949346037866</v>
       </c>
       <c r="S10">
-        <v>0.0908307761937367</v>
+        <v>0.09506507120286622</v>
       </c>
       <c r="T10">
-        <v>0.09083077619373668</v>
+        <v>0.09506507120286625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>1.757262</v>
       </c>
       <c r="I11">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J11">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>50.93598598367933</v>
+        <v>40.854125006864</v>
       </c>
       <c r="R11">
-        <v>458.423873853114</v>
+        <v>367.687125061776</v>
       </c>
       <c r="S11">
-        <v>0.1322264202851287</v>
+        <v>0.1135063385394456</v>
       </c>
       <c r="T11">
-        <v>0.1322264202851286</v>
+        <v>0.1135063385394457</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H12">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>5.618595336639999</v>
+        <v>2.888780284231111</v>
       </c>
       <c r="R12">
-        <v>50.56735802975999</v>
+        <v>25.99902255808</v>
       </c>
       <c r="S12">
-        <v>0.01458549852421958</v>
+        <v>0.00802599181485155</v>
       </c>
       <c r="T12">
-        <v>0.01458549852421958</v>
+        <v>0.008025991814851552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H13">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>5.922207617039999</v>
+        <v>3.12560957566</v>
       </c>
       <c r="R13">
-        <v>53.29986855335999</v>
+        <v>28.13048618094</v>
       </c>
       <c r="S13">
-        <v>0.01537365574188412</v>
+        <v>0.008683982304782935</v>
       </c>
       <c r="T13">
-        <v>0.01537365574188412</v>
+        <v>0.008683982304782937</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H14">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I14">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J14">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>3.82627379992</v>
+        <v>1.347409308642222</v>
       </c>
       <c r="R14">
-        <v>34.43646419928</v>
+        <v>12.12668377778</v>
       </c>
       <c r="S14">
-        <v>0.009932751429535636</v>
+        <v>0.0037435509171289</v>
       </c>
       <c r="T14">
-        <v>0.009932751429535636</v>
+        <v>0.003743550917128901</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H15">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I15">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J15">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>2.050083349599999</v>
+        <v>1.058083380957778</v>
       </c>
       <c r="R15">
-        <v>18.4507501464</v>
+        <v>9.52275042862</v>
       </c>
       <c r="S15">
-        <v>0.005321879558601466</v>
+        <v>0.002939707322621072</v>
       </c>
       <c r="T15">
-        <v>0.005321879558601465</v>
+        <v>0.002939707322621073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H16">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I16">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J16">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,338 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>2.98439795368</v>
+        <v>1.263336459146667</v>
       </c>
       <c r="R16">
-        <v>26.85958158312</v>
+        <v>11.37002813232</v>
       </c>
       <c r="S16">
-        <v>0.007747297917189835</v>
+        <v>0.003509968596733712</v>
       </c>
       <c r="T16">
-        <v>0.007747297917189834</v>
+        <v>0.003509968596733713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.003124</v>
+      </c>
+      <c r="H17">
+        <v>0.009372</v>
+      </c>
+      <c r="I17">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J17">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>159.4836373333333</v>
+      </c>
+      <c r="N17">
+        <v>478.450912</v>
+      </c>
+      <c r="O17">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="P17">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="Q17">
+        <v>0.4982268830293334</v>
+      </c>
+      <c r="R17">
+        <v>4.484041947264</v>
+      </c>
+      <c r="S17">
+        <v>0.001384239883856988</v>
+      </c>
+      <c r="T17">
+        <v>0.001384239883856988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.003124</v>
+      </c>
+      <c r="H18">
+        <v>0.009372</v>
+      </c>
+      <c r="I18">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J18">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>172.558497</v>
+      </c>
+      <c r="N18">
+        <v>517.675491</v>
+      </c>
+      <c r="O18">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="P18">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="Q18">
+        <v>0.5390727446279999</v>
+      </c>
+      <c r="R18">
+        <v>4.851654701652</v>
+      </c>
+      <c r="S18">
+        <v>0.001497723263901834</v>
+      </c>
+      <c r="T18">
+        <v>0.001497723263901834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.003124</v>
+      </c>
+      <c r="H19">
+        <v>0.009372</v>
+      </c>
+      <c r="I19">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J19">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.38770566666666</v>
+      </c>
+      <c r="N19">
+        <v>223.163117</v>
+      </c>
+      <c r="O19">
+        <v>0.1391489036280481</v>
+      </c>
+      <c r="P19">
+        <v>0.1391489036280482</v>
+      </c>
+      <c r="Q19">
+        <v>0.2323871925026667</v>
+      </c>
+      <c r="R19">
+        <v>2.091484732524</v>
+      </c>
+      <c r="S19">
+        <v>0.0006456488626303286</v>
+      </c>
+      <c r="T19">
+        <v>0.0006456488626303288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.003124</v>
+      </c>
+      <c r="H20">
+        <v>0.009372</v>
+      </c>
+      <c r="I20">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J20">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.41461433333333</v>
+      </c>
+      <c r="N20">
+        <v>175.243843</v>
+      </c>
+      <c r="O20">
+        <v>0.1092697975759847</v>
+      </c>
+      <c r="P20">
+        <v>0.1092697975759848</v>
+      </c>
+      <c r="Q20">
+        <v>0.1824872551773333</v>
+      </c>
+      <c r="R20">
+        <v>1.642385296596</v>
+      </c>
+      <c r="S20">
+        <v>0.0005070102507840392</v>
+      </c>
+      <c r="T20">
+        <v>0.0005070102507840394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.003124</v>
+      </c>
+      <c r="H21">
+        <v>0.009372</v>
+      </c>
+      <c r="I21">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J21">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>69.746216</v>
+      </c>
+      <c r="N21">
+        <v>209.238648</v>
+      </c>
+      <c r="O21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P21">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q21">
+        <v>0.217887178784</v>
+      </c>
+      <c r="R21">
+        <v>1.960984609056</v>
+      </c>
+      <c r="S21">
+        <v>0.0006053630049427374</v>
+      </c>
+      <c r="T21">
+        <v>0.0006053630049427377</v>
       </c>
     </row>
   </sheetData>
